--- a/biology/Zoologie/Corbulamella/Corbulamella.xlsx
+++ b/biology/Zoologie/Corbulamella/Corbulamella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corbulamellinae
 Corbulamella est un genre fossile de mollusques bivalves de la famille des Corbulidae, de la sous-famille Corbulamellinae. Les différentes espèces appartenant à ce genre ont été trouvées dans des terrains datant de l'Éocène au Royaume-Uni, du Paléocène au Danemark et du Crétacé au Danemark, au Groenland, en Russie, et dans les Nord et Sud Dakota, aux États-Unis.
@@ -512,9 +524,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>† Corbulamella elegans (Sow., 1827) (syn. †Corbula elegans Sowerby J. de C.[3],[4],[5], 1827), une espèce éteinte du Crétacé trouvée en Tunisie
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>† Corbulamella elegans (Sow., 1827) (syn. †Corbula elegans Sowerby J. de C. 1827), une espèce éteinte du Crétacé trouvée en Tunisie
 † Corbulamella gregaria (Meek &amp; Hayden, 1857)
 † Corbulamella plateaui (Corbula) Cossmann, 1902
 † Corbulamella suffalciata Wade, 1926</t>
